--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\COMIGHT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\COMIGHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D7222-CF9D-4F43-9F24-2A93D968FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C5903-BAE2-4210-83D6-4E09E034386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Websites" sheetId="1" r:id="rId1"/>
@@ -33,59 +33,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Website</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimi.moonshot.cn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobeChat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comight.top</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>395印章</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.doubao.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tongyi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongyi.aliyun.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
   <si>
     <t>chat.openai.com</t>
-  </si>
-  <si>
-    <t>yiyan.baidu.com</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Website</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.bing.com</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimi.moonshot.cn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatGPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>文心一言</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>google.com</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LobeChat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>comight.top</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.aa6666.com</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1059,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1073,58 +1083,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
